--- a/Neon_2x1M_12V/components_checklist_Neon_2x1M_12V.xlsx
+++ b/Neon_2x1M_12V/components_checklist_Neon_2x1M_12V.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NEON_2x1M\Neon_2x1M_12V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643EFC9C-53DA-44D0-88A6-AF9D1EE04593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175719D-A37F-46CA-9AFB-D1476797EE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1217,9 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>89</v>
       </c>

--- a/Neon_2x1M_12V/components_checklist_Neon_2x1M_12V.xlsx
+++ b/Neon_2x1M_12V/components_checklist_Neon_2x1M_12V.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NEON_2x1M\Neon_2x1M_12V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175719D-A37F-46CA-9AFB-D1476797EE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CADF525-DDC4-4B5F-B780-2844418B5127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -782,11 +788,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="7" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,7 +1153,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1401,7 @@
       <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1414,7 +1421,7 @@
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1434,7 +1441,7 @@
       <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1454,7 +1461,7 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>6</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -1474,7 +1481,7 @@
       <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>5</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -1514,7 +1521,7 @@
       <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1534,7 +1541,7 @@
       <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1554,7 +1561,7 @@
       <c r="G20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>2</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -1574,7 +1581,7 @@
       <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
